--- a/scf_trip_time.xlsx
+++ b/scf_trip_time.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15460"/>
+    <workbookView windowHeight="15940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
   <si>
     <t>channel</t>
   </si>
@@ -36,6 +36,9 @@
     <t>trip_time</t>
   </si>
   <si>
+    <t>warehouse</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -46,6 +49,9 @@
     </r>
   </si>
   <si>
+    <t>ord</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -236,9 +242,36 @@
     </r>
   </si>
   <si>
+    <t>USPS640</t>
+  </si>
+  <si>
+    <t>USPS664</t>
+  </si>
+  <si>
+    <t>USPS460</t>
+  </si>
+  <si>
+    <t>USPS462</t>
+  </si>
+  <si>
+    <t>USPS430</t>
+  </si>
+  <si>
+    <t>USPS437</t>
+  </si>
+  <si>
+    <t>USPS680</t>
+  </si>
+  <si>
+    <t>USPS357</t>
+  </si>
+  <si>
     <t>USPS150</t>
   </si>
   <si>
+    <t>jfk</t>
+  </si>
+  <si>
     <t>USPS153</t>
   </si>
   <si>
@@ -246,6 +279,39 @@
   </si>
   <si>
     <t>USPS170</t>
+  </si>
+  <si>
+    <t>USPS180</t>
+  </si>
+  <si>
+    <t>USPS120</t>
+  </si>
+  <si>
+    <t>USPS030</t>
+  </si>
+  <si>
+    <t>USPS270</t>
+  </si>
+  <si>
+    <t>USPS284</t>
+  </si>
+  <si>
+    <t>USPS280</t>
+  </si>
+  <si>
+    <t>USPS290</t>
+  </si>
+  <si>
+    <t>USPS296</t>
+  </si>
+  <si>
+    <t>USPS275</t>
+  </si>
+  <si>
+    <t>USPS240</t>
+  </si>
+  <si>
+    <t>USPS287</t>
   </si>
   <si>
     <r>
@@ -489,7 +555,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -507,6 +573,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -913,7 +986,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -933,6 +1006,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1037,152 +1125,152 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1192,6 +1280,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1201,6 +1292,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1225,6 +1319,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1252,15 +1349,6 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1293,6 +1381,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1613,216 +1704,509 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A12" sqref="A$1:B$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="9" style="26"/>
+    <col min="3" max="3" width="12.8828125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" spans="1:2">
+    <row r="1" s="26" customFormat="1" ht="17" spans="1:3">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="18" spans="1:2">
+      <c r="C1" s="26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:3">
       <c r="A2" s="27" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="28">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" ht="18" spans="1:2">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:3">
       <c r="A3" s="29" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" ht="18" spans="1:2">
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="18" spans="1:3">
       <c r="A4" s="29" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" ht="18" spans="1:2">
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:3">
       <c r="A5" s="29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B5" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" ht="18" spans="1:2">
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:3">
       <c r="A6" s="29" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B6" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" ht="18" spans="1:2">
+      <c r="C6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:3">
       <c r="A7" s="30" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B7" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" ht="18" spans="1:2">
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:3">
       <c r="A8" s="30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B8" s="28">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" ht="18" spans="1:2">
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:3">
       <c r="A9" s="31" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" ht="18" spans="1:2">
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:3">
       <c r="A10" s="31" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B10" s="28">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="18" spans="1:2">
+      <c r="C10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:3">
       <c r="A11" s="32" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" ht="18" spans="1:2">
+      <c r="C11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:3">
       <c r="A12" s="33" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B12" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" ht="18" spans="1:2">
+      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:3">
       <c r="A13" s="33" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B13" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" ht="18" spans="1:2">
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:3">
       <c r="A14" s="33" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B14" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" ht="18" spans="1:2">
+      <c r="C14" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:3">
       <c r="A15" s="34" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B15" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" ht="18" spans="1:2">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:3">
       <c r="A16" s="34" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B16" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" ht="18" spans="1:2">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:3">
       <c r="A17" s="34" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B17" s="28">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" ht="18" spans="1:2">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:3">
       <c r="A18" s="35" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B18" s="28">
         <v>7</v>
       </c>
-    </row>
-    <row r="19" ht="18" spans="1:2">
+      <c r="C18" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:3">
       <c r="A19" s="34" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B19" s="28">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" ht="18" spans="1:2">
+      <c r="C19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:3">
       <c r="A20" s="36" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="28">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" ht="18" spans="1:2">
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="1:3">
       <c r="A21" s="29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" s="28">
         <v>24</v>
       </c>
-    </row>
-    <row r="22" ht="17" spans="1:2">
+      <c r="C21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="1:3">
       <c r="A22" s="26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="26">
+        <v>14</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="1:3">
+      <c r="A23" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="26">
+        <v>14</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="1:3">
+      <c r="A24" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="26">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:3">
+      <c r="A25" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="26">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:3">
+      <c r="A26" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="26">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:3">
+      <c r="A27" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="26">
+        <v>10</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:3">
+      <c r="A28" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="26">
+        <v>0</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="1:3">
+      <c r="A29" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="26">
+        <v>-34</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:3">
+      <c r="A30" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="26">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" ht="17" spans="1:2">
-      <c r="A23" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="26">
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:3">
+      <c r="A31" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="26">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" ht="17" spans="1:2">
-      <c r="A24" s="26" t="s">
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:3">
+      <c r="A32" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="26">
         <v>24</v>
       </c>
-      <c r="B24" s="26">
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:3">
+      <c r="A33" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="26">
         <v>24</v>
       </c>
-    </row>
-    <row r="25" ht="17" spans="1:2">
-      <c r="A25" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="26">
+      <c r="C33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" ht="17.6" spans="1:3">
+      <c r="A34" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="26">
         <v>24</v>
       </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" ht="17.6" spans="1:3">
+      <c r="A35" s="37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="26">
+        <v>24</v>
+      </c>
+      <c r="C35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" ht="17.6" spans="1:3">
+      <c r="A36" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B36" s="26">
+        <v>24</v>
+      </c>
+      <c r="C36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" ht="17.6" spans="1:3">
+      <c r="A37" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="B37" s="26">
+        <v>24</v>
+      </c>
+      <c r="C37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" ht="17.6" spans="1:3">
+      <c r="A38" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="26">
+        <v>24</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" ht="17.6" spans="1:3">
+      <c r="A39" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" s="26">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" ht="17.6" spans="1:3">
+      <c r="A40" s="37" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" s="26">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" ht="17.6" spans="1:3">
+      <c r="A41" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="26">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" ht="17.6" spans="1:3">
+      <c r="A42" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="26">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" ht="17.6" spans="1:3">
+      <c r="A43" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B43" s="26">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" ht="17.6" spans="1:3">
+      <c r="A44" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="26">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45"/>
+      <c r="B45"/>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46"/>
+      <c r="B46"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1852,384 +2236,384 @@
   <sheetData>
     <row r="1" ht="16.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
+        <v>51</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="3">
+        <v>52</v>
+      </c>
+      <c r="B2" s="4">
         <v>25309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
+        <v>53</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3">
+        <v>54</v>
+      </c>
+      <c r="B3" s="4">
         <v>55121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="E3" s="6" t="s">
         <v>6</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="3">
+        <v>56</v>
+      </c>
+      <c r="B4" s="4">
         <v>50395</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
+        <v>57</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="3">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4">
         <v>66106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
+        <v>59</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="3">
+        <v>60</v>
+      </c>
+      <c r="B6" s="4">
         <v>38136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
+        <v>61</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="3">
+        <v>62</v>
+      </c>
+      <c r="B7" s="4">
         <v>48101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="23"/>
+      <c r="E7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="3"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="3">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4">
         <v>63042</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="23"/>
+      <c r="E8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="3"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B9" s="3">
+        <v>64</v>
+      </c>
+      <c r="B9" s="4">
         <v>49512</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
+        <v>65</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="3">
+        <v>66</v>
+      </c>
+      <c r="B10" s="4">
         <v>30268</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
+        <v>67</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="3">
+        <v>68</v>
+      </c>
+      <c r="B11" s="4">
         <v>35222</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
+        <v>61</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
     </row>
     <row r="12" ht="16.25" customHeight="1" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B12" s="3">
+        <v>69</v>
+      </c>
+      <c r="B12" s="4">
         <v>36602</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+    </row>
+    <row r="19" ht="18" spans="4:5">
+      <c r="D19" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="4:5">
+      <c r="D20" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="4:5">
+      <c r="D21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="4:5">
+      <c r="D22" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="4:5">
+      <c r="D23" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" ht="18" spans="4:5">
+      <c r="D24" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="4:5">
+      <c r="D25" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" ht="18" spans="4:5">
+      <c r="D26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="4:5">
+      <c r="D27" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="28" ht="18" spans="4:5">
+      <c r="D28" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" ht="18" spans="4:5">
+      <c r="D29" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" ht="18" spans="4:5">
+      <c r="D30" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="4:5">
+      <c r="D31" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="4:5">
+      <c r="D32" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="4:5">
+      <c r="D33" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" ht="18" spans="4:5">
+      <c r="D34" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="4:5">
+      <c r="D35" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="4:5">
+      <c r="D36" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-    </row>
-    <row r="19" ht="18" spans="4:5">
-      <c r="D19" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" ht="18" spans="4:5">
-      <c r="D20" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" ht="18" spans="4:5">
-      <c r="D21" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" ht="18" spans="4:5">
-      <c r="D22" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" ht="18" spans="4:5">
-      <c r="D23" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" ht="18" spans="4:5">
-      <c r="D24" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" ht="18" spans="4:5">
-      <c r="D25" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="4:5">
-      <c r="D26" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" ht="18" spans="4:5">
-      <c r="D27" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" ht="18" spans="4:5">
-      <c r="D28" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" ht="18" spans="4:5">
-      <c r="D29" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" ht="18" spans="4:5">
-      <c r="D30" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" ht="18" spans="4:5">
-      <c r="D31" s="19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" ht="18" spans="4:5">
-      <c r="D32" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" ht="18" spans="4:5">
-      <c r="D33" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" ht="18" spans="4:5">
-      <c r="D34" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" ht="18" spans="4:5">
-      <c r="D35" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" ht="18" spans="4:5">
-      <c r="D36" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>45</v>
+      <c r="E36" s="16" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="37" ht="18" spans="4:5">
-      <c r="D37" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>39</v>
+      <c r="D37" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="38" ht="18" spans="4:5">
-      <c r="D38" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>48</v>
+      <c r="D38" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/scf_trip_time.xlsx
+++ b/scf_trip_time.xlsx
@@ -10,6 +10,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$44</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
   <si>
     <t>channel</t>
   </si>
@@ -37,6 +40,12 @@
   </si>
   <si>
     <t>warehouse</t>
+  </si>
+  <si>
+    <t>transfertime</t>
+  </si>
+  <si>
+    <t>路程</t>
   </si>
   <si>
     <r>
@@ -555,7 +564,7 @@
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -573,6 +582,12 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体-简"/>
+      <charset val="204"/>
     </font>
     <font>
       <sz val="12"/>
@@ -738,7 +753,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="42">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -796,6 +811,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1125,70 +1146,67 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1203,74 +1221,77 @@
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1352,6 +1373,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1382,7 +1406,10 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1704,19 +1731,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="9" style="26"/>
     <col min="3" max="3" width="12.8828125" customWidth="1"/>
+    <col min="4" max="4" width="14.3203125" customWidth="1"/>
+    <col min="5" max="5" width="9" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="17" spans="1:3">
+    <row r="1" s="26" customFormat="1" ht="17" spans="1:5">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1726,489 +1755,708 @@
       <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" ht="18" spans="1:3">
-      <c r="A2" s="27" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="28">
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:5">
+      <c r="A2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="29">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" ht="18" spans="1:3">
-      <c r="A3" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="28">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>72</v>
+      </c>
+      <c r="E2" s="26">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="18" spans="1:5">
+      <c r="A3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="29">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" ht="18" spans="1:3">
-      <c r="A4" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="28">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>72</v>
+      </c>
+      <c r="E3" s="29">
         <v>8</v>
       </c>
+    </row>
+    <row r="4" ht="18" spans="1:5">
+      <c r="A4" s="30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="29">
+        <v>8</v>
+      </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" ht="18" spans="1:3">
-      <c r="A5" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4">
+        <v>72</v>
+      </c>
+      <c r="E4" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" ht="18" spans="1:5">
+      <c r="A5" s="30" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="29">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5">
+        <v>72</v>
+      </c>
+      <c r="E5" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" ht="18" spans="1:5">
+      <c r="A6" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="29">
+        <v>8</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>72</v>
+      </c>
+      <c r="E6" s="29">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" ht="18" spans="1:5">
+      <c r="A7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="29">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7">
+        <v>72</v>
+      </c>
+      <c r="E7" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="18" spans="1:5">
+      <c r="A8" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="29">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8">
+        <v>72</v>
+      </c>
+      <c r="E8" s="29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" ht="18" spans="1:5">
+      <c r="A9" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="29">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9">
+        <v>72</v>
+      </c>
+      <c r="E9" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="18" spans="1:5">
+      <c r="A10" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="29">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10">
+        <v>72</v>
+      </c>
+      <c r="E10" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="18" spans="1:5">
+      <c r="A11" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="29">
+        <v>14</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11">
+        <v>72</v>
+      </c>
+      <c r="E11" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="18" spans="1:5">
+      <c r="A12" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="29">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <v>72</v>
+      </c>
+      <c r="E12" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" ht="18" spans="1:5">
+      <c r="A13" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="29">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <v>72</v>
+      </c>
+      <c r="E13" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" ht="18" spans="1:5">
+      <c r="A14" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="29">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <v>72</v>
+      </c>
+      <c r="E14" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="18" spans="1:5">
+      <c r="A15" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="29">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <v>72</v>
+      </c>
+      <c r="E15" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" ht="18" spans="1:5">
+      <c r="A16" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="29">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16">
+        <v>72</v>
+      </c>
+      <c r="E16" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" ht="18" spans="1:5">
+      <c r="A17" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="29">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17">
+        <v>72</v>
+      </c>
+      <c r="E17" s="26">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" ht="18" spans="1:5">
+      <c r="A18" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="29">
         <v>7</v>
       </c>
-      <c r="B5" s="28">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="18" spans="1:3">
-      <c r="A6" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="28">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" ht="18" spans="1:3">
-      <c r="A7" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="28">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" ht="18" spans="1:3">
-      <c r="A8" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="28">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" ht="18" spans="1:3">
-      <c r="A9" s="31" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="28">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" ht="18" spans="1:3">
-      <c r="A10" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="28">
-        <v>12</v>
-      </c>
-      <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" ht="18" spans="1:3">
-      <c r="A11" s="32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="28">
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>72</v>
+      </c>
+      <c r="E18" s="29">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="18" spans="1:5">
+      <c r="A19" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" s="29">
+        <v>17</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19">
+        <v>72</v>
+      </c>
+      <c r="E19" s="29">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" ht="18" spans="1:5">
+      <c r="A20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="29">
         <v>14</v>
       </c>
-      <c r="C11" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" ht="18" spans="1:3">
-      <c r="A12" s="33" t="s">
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20">
+        <v>72</v>
+      </c>
+      <c r="E20" s="26">
         <v>14</v>
       </c>
-      <c r="B12" s="28">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" ht="18" spans="1:3">
-      <c r="A13" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="28">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" ht="18" spans="1:3">
-      <c r="A14" s="33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" s="28">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" ht="18" spans="1:3">
-      <c r="A15" s="34" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="28">
-        <v>8</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" ht="18" spans="1:3">
-      <c r="A16" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="28">
-        <v>8</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" ht="18" spans="1:3">
-      <c r="A17" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="28">
-        <v>8</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" ht="18" spans="1:3">
-      <c r="A18" s="35" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="28">
-        <v>7</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" ht="18" spans="1:3">
-      <c r="A19" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" s="28">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" ht="18" spans="1:3">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="28">
-        <v>14</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" ht="18" spans="1:3">
-      <c r="A21" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="28">
+    </row>
+    <row r="21" ht="18" spans="1:5">
+      <c r="A21" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="29">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D21">
+        <v>72</v>
+      </c>
+      <c r="E21" s="29">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" ht="17" spans="1:5">
       <c r="A22" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22" s="26">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>72</v>
+      </c>
+      <c r="E22" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="17" spans="1:5">
       <c r="A23" s="26" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23" s="26">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>72</v>
+      </c>
+      <c r="E23" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="17" spans="1:5">
       <c r="A24" s="26" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24" s="26">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>72</v>
+      </c>
+      <c r="E24" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" ht="17" spans="1:5">
       <c r="A25" s="26" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25" s="26">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>72</v>
+      </c>
+      <c r="E25" s="26">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" ht="17" spans="1:5">
       <c r="A26" s="26" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26" s="26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="27" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D26">
+        <v>72</v>
+      </c>
+      <c r="E26" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" ht="17" spans="1:5">
       <c r="A27" s="26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27" s="26">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D27">
+        <v>72</v>
+      </c>
+      <c r="E27" s="26">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" ht="17" spans="1:5">
       <c r="A28" s="26" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="26">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" ht="17" spans="1:3">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>84</v>
+      </c>
+      <c r="E28" s="26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" ht="17" spans="1:5">
       <c r="A29" s="26" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29" s="26">
         <v>-34</v>
       </c>
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" ht="17" spans="1:3">
-      <c r="A30" s="26" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="D29">
+        <v>120</v>
+      </c>
+      <c r="E29" s="26">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="17" spans="1:5">
+      <c r="A30" s="38" t="s">
+        <v>34</v>
       </c>
       <c r="B30" s="26">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" ht="17" spans="1:3">
-      <c r="A31" s="26" t="s">
-        <v>34</v>
+        <v>35</v>
+      </c>
+      <c r="D30">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:5">
+      <c r="A31" s="38" t="s">
+        <v>36</v>
       </c>
       <c r="B31" s="26">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" ht="17" spans="1:3">
-      <c r="A32" s="26" t="s">
         <v>35</v>
+      </c>
+      <c r="D31">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:5">
+      <c r="A32" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="B32" s="26">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:3">
-      <c r="A33" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="D32">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:4">
+      <c r="A33" s="38" t="s">
+        <v>38</v>
       </c>
       <c r="B33" s="26">
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" ht="17.6" spans="1:3">
-      <c r="A34" s="37" t="s">
-        <v>37</v>
+        <v>35</v>
+      </c>
+      <c r="D33">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" ht="17.6" spans="1:4">
+      <c r="A34" s="39" t="s">
+        <v>39</v>
       </c>
       <c r="B34" s="26">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" ht="17.6" spans="1:3">
-      <c r="A35" s="37" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D34">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" ht="17.6" spans="1:4">
+      <c r="A35" s="39" t="s">
+        <v>40</v>
       </c>
       <c r="B35" s="26">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" ht="17.6" spans="1:3">
-      <c r="A36" s="37" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="17.6" spans="1:4">
+      <c r="A36" s="39" t="s">
+        <v>41</v>
       </c>
       <c r="B36" s="26">
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" ht="17.6" spans="1:3">
-      <c r="A37" s="37" t="s">
-        <v>40</v>
+        <v>35</v>
+      </c>
+      <c r="D36">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" ht="17.6" spans="1:4">
+      <c r="A37" s="39" t="s">
+        <v>42</v>
       </c>
       <c r="B37" s="26">
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" ht="17.6" spans="1:3">
-      <c r="A38" s="37" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" ht="17.6" spans="1:4">
+      <c r="A38" s="39" t="s">
+        <v>43</v>
       </c>
       <c r="B38" s="26">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" ht="17.6" spans="1:3">
-      <c r="A39" s="37" t="s">
-        <v>42</v>
+        <v>35</v>
+      </c>
+      <c r="D38">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" ht="17.6" spans="1:4">
+      <c r="A39" s="39" t="s">
+        <v>44</v>
       </c>
       <c r="B39" s="26">
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="40" ht="17.6" spans="1:3">
-      <c r="A40" s="37" t="s">
-        <v>43</v>
+        <v>35</v>
+      </c>
+      <c r="D39">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" ht="17.6" spans="1:4">
+      <c r="A40" s="39" t="s">
+        <v>45</v>
       </c>
       <c r="B40" s="26">
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" ht="17.6" spans="1:3">
-      <c r="A41" s="37" t="s">
-        <v>44</v>
+        <v>35</v>
+      </c>
+      <c r="D40">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" ht="17.6" spans="1:4">
+      <c r="A41" s="39" t="s">
+        <v>46</v>
       </c>
       <c r="B41" s="26">
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" ht="17.6" spans="1:3">
-      <c r="A42" s="37" t="s">
-        <v>45</v>
+        <v>35</v>
+      </c>
+      <c r="D41">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="42" ht="17.6" spans="1:4">
+      <c r="A42" s="39" t="s">
+        <v>47</v>
       </c>
       <c r="B42" s="26">
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" ht="17.6" spans="1:3">
-      <c r="A43" s="37" t="s">
-        <v>46</v>
+        <v>35</v>
+      </c>
+      <c r="D42">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" ht="17.6" spans="1:4">
+      <c r="A43" s="39" t="s">
+        <v>48</v>
       </c>
       <c r="B43" s="26">
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" ht="17.6" spans="1:3">
-      <c r="A44" s="37" t="s">
-        <v>47</v>
+        <v>35</v>
+      </c>
+      <c r="D43">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" ht="17.6" spans="1:4">
+      <c r="A44" s="39" t="s">
+        <v>49</v>
       </c>
       <c r="B44" s="26">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:4">
       <c r="A46"/>
       <c r="B46"/>
     </row>
   </sheetData>
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D44" etc:filterBottomFollowUsedRange="0">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2219,7 +2467,7 @@
   <sheetPr/>
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
@@ -2236,16 +2484,16 @@
   <sheetData>
     <row r="1" ht="16.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2253,16 +2501,16 @@
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="4">
         <v>25309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2270,77 +2518,77 @@
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B3" s="4">
         <v>55121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B4" s="4">
         <v>50395</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B5" s="4">
         <v>66106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4">
         <v>38136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2348,58 +2596,58 @@
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B7" s="4">
         <v>48101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4">
         <v>63042</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B9" s="4">
         <v>49512</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2407,16 +2655,16 @@
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B10" s="4">
         <v>30268</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2424,16 +2672,16 @@
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B11" s="4">
         <v>35222</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2441,16 +2689,16 @@
     </row>
     <row r="12" ht="16.25" customHeight="1" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4">
         <v>36602</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2458,162 +2706,162 @@
     </row>
     <row r="19" ht="18" spans="4:5">
       <c r="D19" s="15" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" ht="18" spans="4:5">
       <c r="D20" s="17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="18" spans="4:5">
       <c r="D21" s="17" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="18" spans="4:5">
       <c r="D22" s="17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" ht="18" spans="4:5">
       <c r="D23" s="18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" ht="18" spans="4:5">
       <c r="D24" s="19" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" ht="18" spans="4:5">
       <c r="D25" s="19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" ht="18" spans="4:5">
       <c r="D26" s="20" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" ht="18" spans="4:5">
       <c r="D27" s="20" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" ht="18" spans="4:5">
       <c r="D28" s="21" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" ht="18" spans="4:5">
       <c r="D29" s="22" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" ht="18" spans="4:5">
       <c r="D30" s="22" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" ht="18" spans="4:5">
       <c r="D31" s="22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" ht="18" spans="4:5">
       <c r="D32" s="23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" ht="18" spans="4:5">
       <c r="D33" s="23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" ht="18" spans="4:5">
       <c r="D34" s="23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" ht="18" spans="4:5">
       <c r="D35" s="24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="36" ht="18" spans="4:5">
       <c r="D36" s="23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="37" ht="18" spans="4:5">
       <c r="D37" s="25" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" ht="18" spans="4:5">
       <c r="D38" s="17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/scf_trip_time.xlsx
+++ b/scf_trip_time.xlsx
@@ -45,7 +45,7 @@
     <t>transfertime</t>
   </si>
   <si>
-    <t>路程</t>
+    <t>route_time</t>
   </si>
   <si>
     <r>
@@ -1734,7 +1734,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
@@ -2251,6 +2251,9 @@
       <c r="D30">
         <v>72</v>
       </c>
+      <c r="E30" s="26">
+        <v>24</v>
+      </c>
     </row>
     <row r="31" ht="17" spans="1:5">
       <c r="A31" s="38" t="s">
@@ -2265,6 +2268,9 @@
       <c r="D31">
         <v>72</v>
       </c>
+      <c r="E31" s="26">
+        <v>24</v>
+      </c>
     </row>
     <row r="32" ht="17" spans="1:5">
       <c r="A32" s="38" t="s">
@@ -2279,8 +2285,11 @@
       <c r="D32">
         <v>72</v>
       </c>
-    </row>
-    <row r="33" ht="17" spans="1:4">
+      <c r="E32" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:5">
       <c r="A33" s="38" t="s">
         <v>38</v>
       </c>
@@ -2293,8 +2302,11 @@
       <c r="D33">
         <v>72</v>
       </c>
-    </row>
-    <row r="34" ht="17.6" spans="1:4">
+      <c r="E33" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" ht="17.6" spans="1:5">
       <c r="A34" s="39" t="s">
         <v>39</v>
       </c>
@@ -2307,8 +2319,11 @@
       <c r="D34">
         <v>72</v>
       </c>
-    </row>
-    <row r="35" ht="17.6" spans="1:4">
+      <c r="E34" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" ht="17.6" spans="1:5">
       <c r="A35" s="39" t="s">
         <v>40</v>
       </c>
@@ -2321,8 +2336,11 @@
       <c r="D35">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" ht="17.6" spans="1:4">
+      <c r="E35" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" ht="17.6" spans="1:5">
       <c r="A36" s="39" t="s">
         <v>41</v>
       </c>
@@ -2335,8 +2353,11 @@
       <c r="D36">
         <v>72</v>
       </c>
-    </row>
-    <row r="37" ht="17.6" spans="1:4">
+      <c r="E36" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" ht="17.6" spans="1:5">
       <c r="A37" s="39" t="s">
         <v>42</v>
       </c>
@@ -2349,8 +2370,11 @@
       <c r="D37">
         <v>74</v>
       </c>
-    </row>
-    <row r="38" ht="17.6" spans="1:4">
+      <c r="E37" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" ht="17.6" spans="1:5">
       <c r="A38" s="39" t="s">
         <v>43</v>
       </c>
@@ -2363,8 +2387,11 @@
       <c r="D38">
         <v>74</v>
       </c>
-    </row>
-    <row r="39" ht="17.6" spans="1:4">
+      <c r="E38" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" ht="17.6" spans="1:5">
       <c r="A39" s="39" t="s">
         <v>44</v>
       </c>
@@ -2377,8 +2404,11 @@
       <c r="D39">
         <v>74</v>
       </c>
-    </row>
-    <row r="40" ht="17.6" spans="1:4">
+      <c r="E39" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" ht="17.6" spans="1:5">
       <c r="A40" s="39" t="s">
         <v>45</v>
       </c>
@@ -2391,8 +2421,11 @@
       <c r="D40">
         <v>74</v>
       </c>
-    </row>
-    <row r="41" ht="17.6" spans="1:4">
+      <c r="E40" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" ht="17.6" spans="1:5">
       <c r="A41" s="39" t="s">
         <v>46</v>
       </c>
@@ -2405,8 +2438,11 @@
       <c r="D41">
         <v>74</v>
       </c>
-    </row>
-    <row r="42" ht="17.6" spans="1:4">
+      <c r="E41" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" ht="17.6" spans="1:5">
       <c r="A42" s="39" t="s">
         <v>47</v>
       </c>
@@ -2419,8 +2455,11 @@
       <c r="D42">
         <v>74</v>
       </c>
-    </row>
-    <row r="43" ht="17.6" spans="1:4">
+      <c r="E42" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" ht="17.6" spans="1:5">
       <c r="A43" s="39" t="s">
         <v>48</v>
       </c>
@@ -2433,8 +2472,11 @@
       <c r="D43">
         <v>72</v>
       </c>
-    </row>
-    <row r="44" ht="17.6" spans="1:4">
+      <c r="E43" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" ht="17.6" spans="1:5">
       <c r="A44" s="39" t="s">
         <v>49</v>
       </c>
@@ -2444,12 +2486,18 @@
       <c r="C44" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44">
+        <v>74</v>
+      </c>
+      <c r="E44" s="26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45"/>
       <c r="B45"/>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:5">
       <c r="A46"/>
       <c r="B46"/>
     </row>

--- a/scf_trip_time.xlsx
+++ b/scf_trip_time.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
   <si>
     <t>channel</t>
   </si>
@@ -48,6 +48,9 @@
     <t>route_time</t>
   </si>
   <si>
+    <t>miles</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -293,6 +296,9 @@
     <t>USPS180</t>
   </si>
   <si>
+    <t>USPS184</t>
+  </si>
+  <si>
     <t>USPS120</t>
   </si>
   <si>
@@ -321,6 +327,12 @@
   </si>
   <si>
     <t>USPS287</t>
+  </si>
+  <si>
+    <t>USPS376</t>
+  </si>
+  <si>
+    <t>USPS050</t>
   </si>
   <si>
     <r>
@@ -557,12 +569,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -1291,7 +1304,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1408,6 +1421,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1731,21 +1750,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E$1:E$1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="2" width="9" style="26"/>
     <col min="3" max="3" width="12.8828125" customWidth="1"/>
     <col min="4" max="4" width="14.3203125" customWidth="1"/>
     <col min="5" max="5" width="9" style="26"/>
+    <col min="7" max="7" width="12.6875"/>
+    <col min="9" max="9" width="18.484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="17" spans="1:5">
+    <row r="1" s="26" customFormat="1" ht="17" spans="1:6">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1761,16 +1782,19 @@
       <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="18" spans="1:5">
+      <c r="F1" s="26" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="18" spans="1:6">
       <c r="A2" s="28" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="29">
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>72</v>
@@ -1779,15 +1803,15 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" ht="18" spans="1:5">
+    <row r="3" ht="18" spans="1:6">
       <c r="A3" s="30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="29">
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3">
         <v>72</v>
@@ -1796,15 +1820,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" ht="18" spans="1:5">
+    <row r="4" ht="18" spans="1:6">
       <c r="A4" s="30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="29">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4">
         <v>72</v>
@@ -1813,15 +1837,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" ht="18" spans="1:5">
+    <row r="5" ht="18" spans="1:6">
       <c r="A5" s="30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" s="29">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
         <v>72</v>
@@ -1830,15 +1854,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" ht="18" spans="1:5">
+    <row r="6" ht="18" spans="1:6">
       <c r="A6" s="30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" s="29">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6">
         <v>72</v>
@@ -1847,15 +1871,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" ht="18" spans="1:5">
+    <row r="7" ht="18" spans="1:6">
       <c r="A7" s="31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" s="29">
         <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D7">
         <v>72</v>
@@ -1864,15 +1888,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" ht="18" spans="1:5">
+    <row r="8" ht="18" spans="1:6">
       <c r="A8" s="31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="29">
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
         <v>72</v>
@@ -1881,15 +1905,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" ht="18" spans="1:5">
+    <row r="9" ht="18" spans="1:6">
       <c r="A9" s="32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="29">
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D9">
         <v>72</v>
@@ -1898,15 +1922,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" ht="18" spans="1:5">
+    <row r="10" ht="18" spans="1:6">
       <c r="A10" s="32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="29">
         <v>14</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D10">
         <v>72</v>
@@ -1915,15 +1939,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="18" spans="1:5">
+    <row r="11" ht="18" spans="1:6">
       <c r="A11" s="33" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B11" s="29">
         <v>14</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
         <v>72</v>
@@ -1932,15 +1956,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="18" spans="1:5">
+    <row r="12" ht="18" spans="1:6">
       <c r="A12" s="34" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B12" s="29">
         <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>72</v>
@@ -1949,15 +1973,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" ht="18" spans="1:5">
+    <row r="13" ht="18" spans="1:6">
       <c r="A13" s="34" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B13" s="29">
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>72</v>
@@ -1966,15 +1990,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" ht="18" spans="1:5">
+    <row r="14" ht="18" spans="1:6">
       <c r="A14" s="34" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B14" s="29">
         <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>72</v>
@@ -1983,15 +2007,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" ht="18" spans="1:5">
+    <row r="15" ht="18" spans="1:6">
       <c r="A15" s="35" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B15" s="29">
         <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>72</v>
@@ -2000,15 +2024,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" ht="18" spans="1:5">
+    <row r="16" ht="18" spans="1:6">
       <c r="A16" s="35" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B16" s="29">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>72</v>
@@ -2017,15 +2041,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" ht="18" spans="1:5">
+    <row r="17" ht="18" spans="1:10">
       <c r="A17" s="35" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B17" s="29">
         <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>72</v>
@@ -2034,15 +2058,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" ht="18" spans="1:5">
+    <row r="18" ht="18" spans="1:10">
       <c r="A18" s="36" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B18" s="29">
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>72</v>
@@ -2051,15 +2075,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" ht="18" spans="1:5">
+    <row r="19" ht="18" spans="1:10">
       <c r="A19" s="35" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B19" s="29">
         <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>72</v>
@@ -2068,15 +2092,15 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" ht="18" spans="1:5">
+    <row r="20" ht="18" spans="1:10">
       <c r="A20" s="37" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B20" s="29">
         <v>14</v>
       </c>
       <c r="C20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20">
         <v>72</v>
@@ -2085,15 +2109,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" ht="18" spans="1:5">
+    <row r="21" ht="18" spans="1:10">
       <c r="A21" s="30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="29">
         <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D21">
         <v>72</v>
@@ -2102,15 +2126,15 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" ht="17" spans="1:5">
+    <row r="22" ht="17" spans="1:10">
       <c r="A22" s="26" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B22" s="26">
         <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
         <v>72</v>
@@ -2119,15 +2143,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" ht="17" spans="1:5">
+    <row r="23" ht="17" spans="1:10">
       <c r="A23" s="26" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B23" s="26">
         <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>72</v>
@@ -2136,15 +2160,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" ht="17" spans="1:5">
+    <row r="24" ht="17" spans="1:10">
       <c r="A24" s="26" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B24" s="26">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24">
         <v>72</v>
@@ -2153,15 +2177,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" ht="17" spans="1:5">
+    <row r="25" ht="17" spans="1:10">
       <c r="A25" s="26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B25" s="26">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D25">
         <v>72</v>
@@ -2170,15 +2194,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" ht="17" spans="1:5">
+    <row r="26" ht="17" spans="1:10">
       <c r="A26" s="26" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B26" s="26">
         <v>10</v>
       </c>
       <c r="C26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26">
         <v>72</v>
@@ -2187,15 +2211,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" ht="17" spans="1:5">
+    <row r="27" ht="17" spans="1:10">
       <c r="A27" s="26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B27" s="26">
         <v>10</v>
       </c>
       <c r="C27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
         <v>72</v>
@@ -2204,15 +2228,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" ht="17" spans="1:5">
+    <row r="28" ht="17" spans="1:10">
       <c r="A28" s="26" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="26">
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28">
         <v>84</v>
@@ -2221,15 +2245,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" ht="17" spans="1:5">
+    <row r="29" ht="17" spans="1:10">
       <c r="A29" s="26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B29" s="26">
         <v>-34</v>
       </c>
       <c r="C29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D29">
         <v>120</v>
@@ -2238,271 +2262,584 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" ht="17" spans="1:5">
+    <row r="30" ht="17" spans="1:10">
       <c r="A30" s="38" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B30" s="26">
         <v>24</v>
       </c>
       <c r="C30" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D30">
         <v>72</v>
       </c>
-      <c r="E30" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" ht="17" spans="1:5">
+      <c r="E30" s="39">
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <v>434</v>
+      </c>
+      <c r="G30" s="40">
+        <f>F30/35</f>
+        <v>12.4</v>
+      </c>
+      <c r="I30">
+        <v>12.4</v>
+      </c>
+      <c r="J30">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" ht="17" spans="1:10">
       <c r="A31" s="38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B31" s="26">
         <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D31">
         <v>72</v>
       </c>
-      <c r="E31" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" ht="17" spans="1:5">
+      <c r="E31" s="39">
+        <v>13</v>
+      </c>
+      <c r="F31">
+        <v>434</v>
+      </c>
+      <c r="G31" s="40">
+        <f t="shared" ref="G31:G47" si="0">F31/35</f>
+        <v>12.4</v>
+      </c>
+      <c r="I31">
+        <v>12.4</v>
+      </c>
+      <c r="J31">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" ht="17" spans="1:10">
       <c r="A32" s="38" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B32" s="26">
         <v>24</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D32">
         <v>72</v>
       </c>
-      <c r="E32" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" ht="17" spans="1:5">
+      <c r="E32" s="39">
+        <v>7</v>
+      </c>
+      <c r="F32">
+        <v>213</v>
+      </c>
+      <c r="G32" s="40">
+        <f t="shared" si="0"/>
+        <v>6.08571428571429</v>
+      </c>
+      <c r="I32">
+        <v>6.08571428571429</v>
+      </c>
+      <c r="J32">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" ht="17" spans="1:10">
       <c r="A33" s="38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B33" s="26">
         <v>24</v>
       </c>
       <c r="C33" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D33">
         <v>72</v>
       </c>
-      <c r="E33" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34" ht="17.6" spans="1:5">
-      <c r="A34" s="39" t="s">
-        <v>39</v>
+      <c r="E33" s="39">
+        <v>7</v>
+      </c>
+      <c r="F33">
+        <v>213</v>
+      </c>
+      <c r="G33" s="40">
+        <f t="shared" si="0"/>
+        <v>6.08571428571429</v>
+      </c>
+      <c r="I33">
+        <v>6.08571428571429</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" ht="17.6" spans="1:10">
+      <c r="A34" s="41" t="s">
+        <v>40</v>
       </c>
       <c r="B34" s="26">
         <v>24</v>
       </c>
       <c r="C34" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D34">
         <v>72</v>
       </c>
-      <c r="E34" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" ht="17.6" spans="1:5">
-      <c r="A35" s="39" t="s">
-        <v>40</v>
+      <c r="E34" s="39">
+        <v>5</v>
+      </c>
+      <c r="F34">
+        <v>172</v>
+      </c>
+      <c r="G34" s="40">
+        <f t="shared" si="0"/>
+        <v>4.91428571428571</v>
+      </c>
+      <c r="I34">
+        <v>4.91428571428571</v>
+      </c>
+      <c r="J34">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35" ht="17.6" spans="1:10">
+      <c r="A35" s="41" t="s">
+        <v>41</v>
       </c>
       <c r="B35" s="26">
         <v>24</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D35">
         <v>72</v>
       </c>
-      <c r="E35" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="36" ht="17.6" spans="1:5">
-      <c r="A36" s="39" t="s">
-        <v>41</v>
+      <c r="E35" s="39">
+        <v>5</v>
+      </c>
+      <c r="F35">
+        <v>172</v>
+      </c>
+      <c r="G35" s="40">
+        <f t="shared" si="0"/>
+        <v>4.91428571428571</v>
+      </c>
+      <c r="I35">
+        <v>4.91428571428571</v>
+      </c>
+      <c r="J35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" ht="17.6" spans="1:10">
+      <c r="A36" s="41" t="s">
+        <v>42</v>
       </c>
       <c r="B36" s="26">
         <v>24</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>72</v>
       </c>
-      <c r="E36" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" ht="17.6" spans="1:5">
-      <c r="A37" s="39" t="s">
-        <v>42</v>
+      <c r="E36" s="39">
+        <v>6</v>
+      </c>
+      <c r="F36">
+        <v>180</v>
+      </c>
+      <c r="G36" s="40">
+        <f t="shared" si="0"/>
+        <v>5.14285714285714</v>
+      </c>
+      <c r="I36">
+        <v>5.14285714285714</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" ht="17.6" spans="1:10">
+      <c r="A37" s="41" t="s">
+        <v>43</v>
       </c>
       <c r="B37" s="26">
         <v>24</v>
       </c>
       <c r="C37" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D37">
-        <v>74</v>
-      </c>
-      <c r="E37" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" ht="17.6" spans="1:5">
-      <c r="A38" s="39" t="s">
-        <v>43</v>
+        <v>72</v>
+      </c>
+      <c r="E37" s="39">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>248</v>
+      </c>
+      <c r="G37" s="40">
+        <f t="shared" si="0"/>
+        <v>7.08571428571429</v>
+      </c>
+      <c r="I37">
+        <v>7.08571428571429</v>
+      </c>
+      <c r="J37">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" ht="17.6" spans="1:10">
+      <c r="A38" s="41" t="s">
+        <v>44</v>
       </c>
       <c r="B38" s="26">
         <v>24</v>
       </c>
       <c r="C38" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D38">
         <v>74</v>
       </c>
-      <c r="E38" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39" ht="17.6" spans="1:5">
-      <c r="A39" s="39" t="s">
-        <v>44</v>
+      <c r="E38" s="39">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>588</v>
+      </c>
+      <c r="G38" s="40">
+        <f t="shared" si="0"/>
+        <v>16.8</v>
+      </c>
+      <c r="H38">
+        <v>8</v>
+      </c>
+      <c r="I38">
+        <f>G38+H38</f>
+        <v>24.8</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" ht="17.6" spans="1:10">
+      <c r="A39" s="41" t="s">
+        <v>45</v>
       </c>
       <c r="B39" s="26">
         <v>24</v>
       </c>
       <c r="C39" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D39">
         <v>74</v>
       </c>
-      <c r="E39" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" ht="17.6" spans="1:5">
-      <c r="A40" s="39" t="s">
-        <v>45</v>
+      <c r="E39" s="39">
+        <v>26</v>
+      </c>
+      <c r="F39">
+        <v>605</v>
+      </c>
+      <c r="G39" s="40">
+        <f t="shared" si="0"/>
+        <v>17.2857142857143</v>
+      </c>
+      <c r="H39">
+        <v>8</v>
+      </c>
+      <c r="I39">
+        <f t="shared" ref="I39:I46" si="1">G39+H39</f>
+        <v>25.2857142857143</v>
+      </c>
+      <c r="J39">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" ht="17.6" spans="1:10">
+      <c r="A40" s="41" t="s">
+        <v>46</v>
       </c>
       <c r="B40" s="26">
         <v>24</v>
       </c>
       <c r="C40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D40">
         <v>74</v>
       </c>
-      <c r="E40" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" ht="17.6" spans="1:5">
-      <c r="A41" s="39" t="s">
-        <v>46</v>
+      <c r="E40" s="39">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <v>685</v>
+      </c>
+      <c r="G40" s="40">
+        <f t="shared" si="0"/>
+        <v>19.5714285714286</v>
+      </c>
+      <c r="H40">
+        <v>8</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="1"/>
+        <v>27.5714285714286</v>
+      </c>
+      <c r="J40">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" ht="17.6" spans="1:10">
+      <c r="A41" s="41" t="s">
+        <v>47</v>
       </c>
       <c r="B41" s="26">
         <v>24</v>
       </c>
       <c r="C41" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D41">
         <v>74</v>
       </c>
-      <c r="E41" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="42" ht="17.6" spans="1:5">
-      <c r="A42" s="39" t="s">
-        <v>47</v>
+      <c r="E41" s="39">
+        <v>30</v>
+      </c>
+      <c r="F41">
+        <v>763</v>
+      </c>
+      <c r="G41" s="40">
+        <f t="shared" si="0"/>
+        <v>21.8</v>
+      </c>
+      <c r="H41">
+        <v>8</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="1"/>
+        <v>29.8</v>
+      </c>
+      <c r="J41">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" ht="17.6" spans="1:10">
+      <c r="A42" s="41" t="s">
+        <v>48</v>
       </c>
       <c r="B42" s="26">
         <v>24</v>
       </c>
       <c r="C42" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D42">
         <v>74</v>
       </c>
-      <c r="E42" s="26">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="43" ht="17.6" spans="1:5">
-      <c r="A43" s="39" t="s">
-        <v>48</v>
+      <c r="E42" s="39">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>766</v>
+      </c>
+      <c r="G42" s="40">
+        <f t="shared" si="0"/>
+        <v>21.8857142857143</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="1"/>
+        <v>29.8857142857143</v>
+      </c>
+      <c r="J42">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" ht="17.6" spans="1:10">
+      <c r="A43" s="41" t="s">
+        <v>49</v>
       </c>
       <c r="B43" s="26">
         <v>24</v>
       </c>
       <c r="C43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D43">
-        <v>72</v>
-      </c>
-      <c r="E43" s="26">
+        <v>74</v>
+      </c>
+      <c r="E43" s="39">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" ht="17.6" spans="1:5">
-      <c r="A44" s="39" t="s">
-        <v>49</v>
+      <c r="F43">
+        <v>557</v>
+      </c>
+      <c r="G43" s="40">
+        <f t="shared" si="0"/>
+        <v>15.9142857142857</v>
+      </c>
+      <c r="H43">
+        <v>8</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="1"/>
+        <v>23.9142857142857</v>
+      </c>
+      <c r="J43">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" ht="17.6" spans="1:10">
+      <c r="A44" s="41" t="s">
+        <v>50</v>
       </c>
       <c r="B44" s="26">
         <v>24</v>
       </c>
       <c r="C44" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D44">
+        <v>72</v>
+      </c>
+      <c r="E44" s="39">
+        <v>23</v>
+      </c>
+      <c r="F44">
+        <v>500</v>
+      </c>
+      <c r="G44" s="40">
+        <f t="shared" si="0"/>
+        <v>14.2857142857143</v>
+      </c>
+      <c r="H44">
+        <v>8</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="1"/>
+        <v>22.2857142857143</v>
+      </c>
+      <c r="J44">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" ht="17.6" spans="1:10">
+      <c r="A45" s="41" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="26">
+        <v>24</v>
+      </c>
+      <c r="C45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D45">
         <v>74</v>
       </c>
-      <c r="E44" s="26">
+      <c r="E45" s="39">
+        <v>30</v>
+      </c>
+      <c r="F45">
+        <v>766</v>
+      </c>
+      <c r="G45" s="40">
+        <f t="shared" si="0"/>
+        <v>21.8857142857143</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="1"/>
+        <v>29.8857142857143</v>
+      </c>
+      <c r="J45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" ht="17.6" spans="1:10">
+      <c r="A46" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="26">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45"/>
-      <c r="B45"/>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46"/>
-      <c r="B46"/>
+      <c r="C46" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46">
+        <v>74</v>
+      </c>
+      <c r="E46" s="39">
+        <v>28</v>
+      </c>
+      <c r="F46">
+        <v>685</v>
+      </c>
+      <c r="G46" s="40">
+        <f t="shared" si="0"/>
+        <v>19.5714285714286</v>
+      </c>
+      <c r="H46">
+        <v>8</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="1"/>
+        <v>27.5714285714286</v>
+      </c>
+      <c r="J46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" ht="17.6" spans="1:10">
+      <c r="A47" s="41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="26">
+        <v>24</v>
+      </c>
+      <c r="C47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D47">
+        <v>72</v>
+      </c>
+      <c r="E47" s="39">
+        <v>8</v>
+      </c>
+      <c r="F47">
+        <v>248</v>
+      </c>
+      <c r="G47" s="40">
+        <f t="shared" si="0"/>
+        <v>7.08571428571429</v>
+      </c>
+      <c r="I47">
+        <v>7.08571428571429</v>
+      </c>
+      <c r="J47">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D44" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D45" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2532,16 +2869,16 @@
   <sheetData>
     <row r="1" ht="16.25" customHeight="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -2549,16 +2886,16 @@
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B2" s="4">
         <v>25309</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
@@ -2566,77 +2903,77 @@
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4">
         <v>55121</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B4" s="4">
         <v>50395</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
     <row r="5" ht="16" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B5" s="4">
         <v>66106</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
     <row r="6" ht="16.5" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B6" s="4">
         <v>38136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -2644,58 +2981,58 @@
     </row>
     <row r="7" ht="16.5" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B7" s="4">
         <v>48101</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" s="3"/>
     </row>
     <row r="8" ht="16" customHeight="1" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B8" s="4">
         <v>63042</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G8" s="3"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B9" s="4">
         <v>49512</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -2703,16 +3040,16 @@
     </row>
     <row r="10" ht="16.5" customHeight="1" spans="1:7">
       <c r="A10" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B10" s="4">
         <v>30268</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -2720,16 +3057,16 @@
     </row>
     <row r="11" ht="16" customHeight="1" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B11" s="4">
         <v>35222</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -2737,16 +3074,16 @@
     </row>
     <row r="12" ht="16.25" customHeight="1" spans="1:7">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B12" s="4">
         <v>36602</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2754,162 +3091,162 @@
     </row>
     <row r="19" ht="18" spans="4:5">
       <c r="D19" s="15" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" ht="18" spans="4:5">
       <c r="D20" s="17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" ht="18" spans="4:5">
       <c r="D21" s="17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="18" spans="4:5">
       <c r="D22" s="17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" ht="18" spans="4:5">
       <c r="D23" s="18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" ht="18" spans="4:5">
       <c r="D24" s="19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" ht="18" spans="4:5">
       <c r="D25" s="19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" ht="18" spans="4:5">
       <c r="D26" s="20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" ht="18" spans="4:5">
       <c r="D27" s="20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" ht="18" spans="4:5">
       <c r="D28" s="21" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" ht="18" spans="4:5">
       <c r="D29" s="22" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="18" spans="4:5">
       <c r="D30" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31" ht="18" spans="4:5">
       <c r="D31" s="22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32" ht="18" spans="4:5">
       <c r="D32" s="23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" ht="18" spans="4:5">
       <c r="D33" s="23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="34" ht="18" spans="4:5">
       <c r="D34" s="23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" ht="18" spans="4:5">
       <c r="D35" s="24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" ht="18" spans="4:5">
       <c r="D36" s="23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" ht="18" spans="4:5">
       <c r="D37" s="25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" ht="18" spans="4:5">
       <c r="D38" s="17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>

--- a/scf_trip_time.xlsx
+++ b/scf_trip_time.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="15940"/>
+    <workbookView windowHeight="15340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$D$47</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="81">
   <si>
     <t>channel</t>
   </si>
@@ -335,6 +336,9 @@
     <t>USPS050</t>
   </si>
   <si>
+    <t>USPS444</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -563,6 +567,15 @@
       </rPr>
       <t>24hrs</t>
     </r>
+  </si>
+  <si>
+    <t>渠道</t>
+  </si>
+  <si>
+    <t>卡转时效</t>
+  </si>
+  <si>
+    <t>路程时间</t>
   </si>
 </sst>
 </file>
@@ -585,18 +598,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="SimSun"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体-简"/>
@@ -608,6 +609,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -775,6 +788,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F3"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -824,12 +843,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD0CECD"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1026,6 +1039,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1040,21 +1068,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1304,122 +1317,134 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1427,9 +1452,6 @@
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1750,47 +1772,47 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E$1:E$1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
-    <col min="1" max="2" width="9" style="26"/>
+    <col min="1" max="2" width="9" style="30"/>
     <col min="3" max="3" width="12.8828125" customWidth="1"/>
     <col min="4" max="4" width="14.3203125" customWidth="1"/>
-    <col min="5" max="5" width="9" style="26"/>
+    <col min="5" max="5" width="9" style="30"/>
     <col min="7" max="7" width="12.6875"/>
     <col min="9" max="9" width="18.484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="26" customFormat="1" ht="17" spans="1:6">
-      <c r="A1" s="26" t="s">
+    <row r="1" s="30" customFormat="1" ht="17" spans="1:6">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="30" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" ht="18" spans="1:6">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="33">
         <v>13</v>
       </c>
       <c r="C2" t="s">
@@ -1799,15 +1821,15 @@
       <c r="D2">
         <v>72</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="30">
         <v>13</v>
       </c>
     </row>
     <row r="3" ht="18" spans="1:6">
-      <c r="A3" s="30" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="29">
+      <c r="A3" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="33">
         <v>8</v>
       </c>
       <c r="C3" t="s">
@@ -1816,15 +1838,15 @@
       <c r="D3">
         <v>72</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="18" spans="1:6">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="33">
         <v>8</v>
       </c>
       <c r="C4" t="s">
@@ -1833,15 +1855,15 @@
       <c r="D4">
         <v>72</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="5" ht="18" spans="1:6">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="33">
         <v>8</v>
       </c>
       <c r="C5" t="s">
@@ -1850,15 +1872,15 @@
       <c r="D5">
         <v>72</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="6" ht="18" spans="1:6">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="33">
         <v>8</v>
       </c>
       <c r="C6" t="s">
@@ -1867,15 +1889,15 @@
       <c r="D6">
         <v>72</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="33">
         <v>8</v>
       </c>
     </row>
     <row r="7" ht="18" spans="1:6">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="33">
         <v>9</v>
       </c>
       <c r="C7" t="s">
@@ -1884,15 +1906,15 @@
       <c r="D7">
         <v>72</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="33">
         <v>9</v>
       </c>
     </row>
     <row r="8" ht="18" spans="1:6">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="33">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -1901,15 +1923,15 @@
       <c r="D8">
         <v>72</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="33">
         <v>9</v>
       </c>
     </row>
     <row r="9" ht="18" spans="1:6">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="33">
         <v>14</v>
       </c>
       <c r="C9" t="s">
@@ -1918,15 +1940,15 @@
       <c r="D9">
         <v>72</v>
       </c>
-      <c r="E9" s="26">
+      <c r="E9" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="10" ht="18" spans="1:6">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="33">
         <v>14</v>
       </c>
       <c r="C10" t="s">
@@ -1935,15 +1957,15 @@
       <c r="D10">
         <v>72</v>
       </c>
-      <c r="E10" s="26">
+      <c r="E10" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="11" ht="18" spans="1:6">
-      <c r="A11" s="33" t="s">
+      <c r="A11" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="33">
         <v>14</v>
       </c>
       <c r="C11" t="s">
@@ -1952,15 +1974,15 @@
       <c r="D11">
         <v>72</v>
       </c>
-      <c r="E11" s="26">
+      <c r="E11" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="12" ht="18" spans="1:6">
-      <c r="A12" s="34" t="s">
+      <c r="A12" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="33">
         <v>8</v>
       </c>
       <c r="C12" t="s">
@@ -1969,15 +1991,15 @@
       <c r="D12">
         <v>72</v>
       </c>
-      <c r="E12" s="26">
+      <c r="E12" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="13" ht="18" spans="1:6">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="29">
+      <c r="B13" s="33">
         <v>8</v>
       </c>
       <c r="C13" t="s">
@@ -1986,15 +2008,15 @@
       <c r="D13">
         <v>72</v>
       </c>
-      <c r="E13" s="26">
+      <c r="E13" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="14" ht="18" spans="1:6">
-      <c r="A14" s="34" t="s">
+      <c r="A14" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B14" s="33">
         <v>8</v>
       </c>
       <c r="C14" t="s">
@@ -2003,15 +2025,15 @@
       <c r="D14">
         <v>72</v>
       </c>
-      <c r="E14" s="26">
+      <c r="E14" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="15" ht="18" spans="1:6">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="33">
         <v>8</v>
       </c>
       <c r="C15" t="s">
@@ -2020,15 +2042,15 @@
       <c r="D15">
         <v>72</v>
       </c>
-      <c r="E15" s="26">
+      <c r="E15" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="16" ht="18" spans="1:6">
-      <c r="A16" s="35" t="s">
+      <c r="A16" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B16" s="29">
+      <c r="B16" s="33">
         <v>8</v>
       </c>
       <c r="C16" t="s">
@@ -2037,15 +2059,15 @@
       <c r="D16">
         <v>72</v>
       </c>
-      <c r="E16" s="26">
+      <c r="E16" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="17" ht="18" spans="1:10">
-      <c r="A17" s="35" t="s">
+      <c r="A17" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="29">
+      <c r="B17" s="33">
         <v>8</v>
       </c>
       <c r="C17" t="s">
@@ -2054,15 +2076,15 @@
       <c r="D17">
         <v>72</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="30">
         <v>8</v>
       </c>
     </row>
     <row r="18" ht="18" spans="1:10">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="40" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="29">
+      <c r="B18" s="33">
         <v>7</v>
       </c>
       <c r="C18" t="s">
@@ -2071,15 +2093,15 @@
       <c r="D18">
         <v>72</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="33">
         <v>7</v>
       </c>
     </row>
     <row r="19" ht="18" spans="1:10">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="29">
+      <c r="B19" s="33">
         <v>17</v>
       </c>
       <c r="C19" t="s">
@@ -2088,15 +2110,15 @@
       <c r="D19">
         <v>72</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="33">
         <v>17</v>
       </c>
     </row>
     <row r="20" ht="18" spans="1:10">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B20" s="33">
         <v>14</v>
       </c>
       <c r="C20" t="s">
@@ -2105,15 +2127,15 @@
       <c r="D20">
         <v>72</v>
       </c>
-      <c r="E20" s="26">
+      <c r="E20" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="21" ht="18" spans="1:10">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="B21" s="29">
+      <c r="B21" s="33">
         <v>24</v>
       </c>
       <c r="C21" t="s">
@@ -2122,15 +2144,15 @@
       <c r="D21">
         <v>72</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="33">
         <v>24</v>
       </c>
     </row>
     <row r="22" ht="17" spans="1:10">
-      <c r="A22" s="26" t="s">
+      <c r="A22" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="30">
         <v>14</v>
       </c>
       <c r="C22" t="s">
@@ -2139,15 +2161,15 @@
       <c r="D22">
         <v>72</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="23" ht="17" spans="1:10">
-      <c r="A23" s="26" t="s">
+      <c r="A23" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="30">
         <v>14</v>
       </c>
       <c r="C23" t="s">
@@ -2156,15 +2178,15 @@
       <c r="D23">
         <v>72</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="24" ht="17" spans="1:10">
-      <c r="A24" s="26" t="s">
+      <c r="A24" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="30">
         <v>6</v>
       </c>
       <c r="C24" t="s">
@@ -2173,15 +2195,15 @@
       <c r="D24">
         <v>72</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="25" ht="17" spans="1:10">
-      <c r="A25" s="26" t="s">
+      <c r="A25" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="26">
+      <c r="B25" s="30">
         <v>6</v>
       </c>
       <c r="C25" t="s">
@@ -2190,15 +2212,15 @@
       <c r="D25">
         <v>72</v>
       </c>
-      <c r="E25" s="26">
+      <c r="E25" s="30">
         <v>6</v>
       </c>
     </row>
     <row r="26" ht="17" spans="1:10">
-      <c r="A26" s="26" t="s">
+      <c r="A26" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="26">
+      <c r="B26" s="30">
         <v>10</v>
       </c>
       <c r="C26" t="s">
@@ -2207,15 +2229,15 @@
       <c r="D26">
         <v>72</v>
       </c>
-      <c r="E26" s="26">
+      <c r="E26" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="27" ht="17" spans="1:10">
-      <c r="A27" s="26" t="s">
+      <c r="A27" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="26">
+      <c r="B27" s="30">
         <v>10</v>
       </c>
       <c r="C27" t="s">
@@ -2224,15 +2246,15 @@
       <c r="D27">
         <v>72</v>
       </c>
-      <c r="E27" s="26">
+      <c r="E27" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="28" ht="17" spans="1:10">
-      <c r="A28" s="26" t="s">
+      <c r="A28" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="26">
+      <c r="B28" s="30">
         <v>0</v>
       </c>
       <c r="C28" t="s">
@@ -2241,15 +2263,15 @@
       <c r="D28">
         <v>84</v>
       </c>
-      <c r="E28" s="26">
+      <c r="E28" s="30">
         <v>12</v>
       </c>
     </row>
     <row r="29" ht="17" spans="1:10">
-      <c r="A29" s="26" t="s">
+      <c r="A29" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="26">
+      <c r="B29" s="30">
         <v>-34</v>
       </c>
       <c r="C29" t="s">
@@ -2258,15 +2280,15 @@
       <c r="D29">
         <v>120</v>
       </c>
-      <c r="E29" s="26">
+      <c r="E29" s="30">
         <v>14</v>
       </c>
     </row>
     <row r="30" ht="17" spans="1:10">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="26">
+      <c r="B30" s="30">
         <v>24</v>
       </c>
       <c r="C30" t="s">
@@ -2275,13 +2297,13 @@
       <c r="D30">
         <v>72</v>
       </c>
-      <c r="E30" s="39">
+      <c r="E30" s="43">
         <v>13</v>
       </c>
       <c r="F30">
         <v>434</v>
       </c>
-      <c r="G30" s="40">
+      <c r="G30" s="44">
         <f>F30/35</f>
         <v>12.4</v>
       </c>
@@ -2293,10 +2315,10 @@
       </c>
     </row>
     <row r="31" ht="17" spans="1:10">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="26">
+      <c r="B31" s="30">
         <v>24</v>
       </c>
       <c r="C31" t="s">
@@ -2305,14 +2327,14 @@
       <c r="D31">
         <v>72</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="43">
         <v>13</v>
       </c>
       <c r="F31">
         <v>434</v>
       </c>
-      <c r="G31" s="40">
-        <f t="shared" ref="G31:G47" si="0">F31/35</f>
+      <c r="G31" s="44">
+        <f t="shared" ref="G31:G48" si="0">F31/35</f>
         <v>12.4</v>
       </c>
       <c r="I31">
@@ -2323,10 +2345,10 @@
       </c>
     </row>
     <row r="32" ht="17" spans="1:10">
-      <c r="A32" s="38" t="s">
+      <c r="A32" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="30">
         <v>24</v>
       </c>
       <c r="C32" t="s">
@@ -2335,13 +2357,13 @@
       <c r="D32">
         <v>72</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="43">
         <v>7</v>
       </c>
       <c r="F32">
         <v>213</v>
       </c>
-      <c r="G32" s="40">
+      <c r="G32" s="44">
         <f t="shared" si="0"/>
         <v>6.08571428571429</v>
       </c>
@@ -2353,10 +2375,10 @@
       </c>
     </row>
     <row r="33" ht="17" spans="1:10">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="30">
         <v>24</v>
       </c>
       <c r="C33" t="s">
@@ -2365,13 +2387,13 @@
       <c r="D33">
         <v>72</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="43">
         <v>7</v>
       </c>
       <c r="F33">
         <v>213</v>
       </c>
-      <c r="G33" s="40">
+      <c r="G33" s="44">
         <f t="shared" si="0"/>
         <v>6.08571428571429</v>
       </c>
@@ -2383,10 +2405,10 @@
       </c>
     </row>
     <row r="34" ht="17.6" spans="1:10">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="30">
         <v>24</v>
       </c>
       <c r="C34" t="s">
@@ -2395,13 +2417,13 @@
       <c r="D34">
         <v>72</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="43">
         <v>5</v>
       </c>
       <c r="F34">
         <v>172</v>
       </c>
-      <c r="G34" s="40">
+      <c r="G34" s="44">
         <f t="shared" si="0"/>
         <v>4.91428571428571</v>
       </c>
@@ -2413,10 +2435,10 @@
       </c>
     </row>
     <row r="35" ht="17.6" spans="1:10">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="30">
         <v>24</v>
       </c>
       <c r="C35" t="s">
@@ -2425,13 +2447,13 @@
       <c r="D35">
         <v>72</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="43">
         <v>5</v>
       </c>
       <c r="F35">
         <v>172</v>
       </c>
-      <c r="G35" s="40">
+      <c r="G35" s="44">
         <f t="shared" si="0"/>
         <v>4.91428571428571</v>
       </c>
@@ -2443,10 +2465,10 @@
       </c>
     </row>
     <row r="36" ht="17.6" spans="1:10">
-      <c r="A36" s="41" t="s">
+      <c r="A36" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="30">
         <v>24</v>
       </c>
       <c r="C36" t="s">
@@ -2455,13 +2477,13 @@
       <c r="D36">
         <v>72</v>
       </c>
-      <c r="E36" s="39">
+      <c r="E36" s="43">
         <v>6</v>
       </c>
       <c r="F36">
         <v>180</v>
       </c>
-      <c r="G36" s="40">
+      <c r="G36" s="44">
         <f t="shared" si="0"/>
         <v>5.14285714285714</v>
       </c>
@@ -2473,10 +2495,10 @@
       </c>
     </row>
     <row r="37" ht="17.6" spans="1:10">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="30">
         <v>24</v>
       </c>
       <c r="C37" t="s">
@@ -2485,13 +2507,13 @@
       <c r="D37">
         <v>72</v>
       </c>
-      <c r="E37" s="39">
+      <c r="E37" s="43">
         <v>8</v>
       </c>
       <c r="F37">
         <v>248</v>
       </c>
-      <c r="G37" s="40">
+      <c r="G37" s="44">
         <f t="shared" si="0"/>
         <v>7.08571428571429</v>
       </c>
@@ -2503,10 +2525,10 @@
       </c>
     </row>
     <row r="38" ht="17.6" spans="1:10">
-      <c r="A38" s="41" t="s">
+      <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="30">
         <v>24</v>
       </c>
       <c r="C38" t="s">
@@ -2515,13 +2537,13 @@
       <c r="D38">
         <v>74</v>
       </c>
-      <c r="E38" s="39">
+      <c r="E38" s="43">
         <v>25</v>
       </c>
       <c r="F38">
         <v>588</v>
       </c>
-      <c r="G38" s="40">
+      <c r="G38" s="44">
         <f t="shared" si="0"/>
         <v>16.8</v>
       </c>
@@ -2537,10 +2559,10 @@
       </c>
     </row>
     <row r="39" ht="17.6" spans="1:10">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="30">
         <v>24</v>
       </c>
       <c r="C39" t="s">
@@ -2549,13 +2571,13 @@
       <c r="D39">
         <v>74</v>
       </c>
-      <c r="E39" s="39">
+      <c r="E39" s="43">
         <v>26</v>
       </c>
       <c r="F39">
         <v>605</v>
       </c>
-      <c r="G39" s="40">
+      <c r="G39" s="44">
         <f t="shared" si="0"/>
         <v>17.2857142857143</v>
       </c>
@@ -2571,10 +2593,10 @@
       </c>
     </row>
     <row r="40" ht="17.6" spans="1:10">
-      <c r="A40" s="41" t="s">
+      <c r="A40" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="30">
         <v>24</v>
       </c>
       <c r="C40" t="s">
@@ -2583,13 +2605,13 @@
       <c r="D40">
         <v>74</v>
       </c>
-      <c r="E40" s="39">
+      <c r="E40" s="43">
         <v>28</v>
       </c>
       <c r="F40">
         <v>685</v>
       </c>
-      <c r="G40" s="40">
+      <c r="G40" s="44">
         <f t="shared" si="0"/>
         <v>19.5714285714286</v>
       </c>
@@ -2605,10 +2627,10 @@
       </c>
     </row>
     <row r="41" ht="17.6" spans="1:10">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="30">
         <v>24</v>
       </c>
       <c r="C41" t="s">
@@ -2617,13 +2639,13 @@
       <c r="D41">
         <v>74</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E41" s="43">
         <v>30</v>
       </c>
       <c r="F41">
         <v>763</v>
       </c>
-      <c r="G41" s="40">
+      <c r="G41" s="44">
         <f t="shared" si="0"/>
         <v>21.8</v>
       </c>
@@ -2639,10 +2661,10 @@
       </c>
     </row>
     <row r="42" ht="17.6" spans="1:10">
-      <c r="A42" s="41" t="s">
+      <c r="A42" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="30">
         <v>24</v>
       </c>
       <c r="C42" t="s">
@@ -2651,13 +2673,13 @@
       <c r="D42">
         <v>74</v>
       </c>
-      <c r="E42" s="39">
+      <c r="E42" s="43">
         <v>30</v>
       </c>
       <c r="F42">
         <v>766</v>
       </c>
-      <c r="G42" s="40">
+      <c r="G42" s="44">
         <f t="shared" si="0"/>
         <v>21.8857142857143</v>
       </c>
@@ -2673,10 +2695,10 @@
       </c>
     </row>
     <row r="43" ht="17.6" spans="1:10">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="30">
         <v>24</v>
       </c>
       <c r="C43" t="s">
@@ -2685,13 +2707,13 @@
       <c r="D43">
         <v>74</v>
       </c>
-      <c r="E43" s="39">
+      <c r="E43" s="43">
         <v>24</v>
       </c>
       <c r="F43">
         <v>557</v>
       </c>
-      <c r="G43" s="40">
+      <c r="G43" s="44">
         <f t="shared" si="0"/>
         <v>15.9142857142857</v>
       </c>
@@ -2707,10 +2729,10 @@
       </c>
     </row>
     <row r="44" ht="17.6" spans="1:10">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="30">
         <v>24</v>
       </c>
       <c r="C44" t="s">
@@ -2719,13 +2741,13 @@
       <c r="D44">
         <v>72</v>
       </c>
-      <c r="E44" s="39">
+      <c r="E44" s="43">
         <v>23</v>
       </c>
       <c r="F44">
         <v>500</v>
       </c>
-      <c r="G44" s="40">
+      <c r="G44" s="44">
         <f t="shared" si="0"/>
         <v>14.2857142857143</v>
       </c>
@@ -2741,10 +2763,10 @@
       </c>
     </row>
     <row r="45" ht="17.6" spans="1:10">
-      <c r="A45" s="41" t="s">
+      <c r="A45" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="B45" s="26">
+      <c r="B45" s="30">
         <v>24</v>
       </c>
       <c r="C45" t="s">
@@ -2753,13 +2775,13 @@
       <c r="D45">
         <v>74</v>
       </c>
-      <c r="E45" s="39">
+      <c r="E45" s="43">
         <v>30</v>
       </c>
       <c r="F45">
         <v>766</v>
       </c>
-      <c r="G45" s="40">
+      <c r="G45" s="44">
         <f t="shared" si="0"/>
         <v>21.8857142857143</v>
       </c>
@@ -2775,10 +2797,10 @@
       </c>
     </row>
     <row r="46" ht="17.6" spans="1:10">
-      <c r="A46" s="41" t="s">
+      <c r="A46" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B46" s="26">
+      <c r="B46" s="30">
         <v>24</v>
       </c>
       <c r="C46" t="s">
@@ -2787,13 +2809,13 @@
       <c r="D46">
         <v>74</v>
       </c>
-      <c r="E46" s="39">
+      <c r="E46" s="43">
         <v>28</v>
       </c>
       <c r="F46">
         <v>685</v>
       </c>
-      <c r="G46" s="40">
+      <c r="G46" s="44">
         <f t="shared" si="0"/>
         <v>19.5714285714286</v>
       </c>
@@ -2809,10 +2831,10 @@
       </c>
     </row>
     <row r="47" ht="17.6" spans="1:10">
-      <c r="A47" s="41" t="s">
+      <c r="A47" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B47" s="26">
+      <c r="B47" s="30">
         <v>24</v>
       </c>
       <c r="C47" t="s">
@@ -2821,13 +2843,13 @@
       <c r="D47">
         <v>72</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E47" s="43">
         <v>8</v>
       </c>
       <c r="F47">
         <v>248</v>
       </c>
-      <c r="G47" s="40">
+      <c r="G47" s="44">
         <f t="shared" si="0"/>
         <v>7.08571428571429</v>
       </c>
@@ -2838,8 +2860,38 @@
         <v>8</v>
       </c>
     </row>
+    <row r="48" customFormat="1" ht="17.6" spans="1:10">
+      <c r="A48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="30">
+        <v>24</v>
+      </c>
+      <c r="C48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>72</v>
+      </c>
+      <c r="E48" s="43">
+        <v>13</v>
+      </c>
+      <c r="F48">
+        <v>248</v>
+      </c>
+      <c r="G48" s="44">
+        <f t="shared" si="0"/>
+        <v>7.08571428571429</v>
+      </c>
+      <c r="I48">
+        <v>7.08571428571429</v>
+      </c>
+      <c r="J48">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D45" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:D47" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2868,389 +2920,677 @@
   </cols>
   <sheetData>
     <row r="1" ht="16.25" customHeight="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="C1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
+      <c r="D1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
     </row>
     <row r="2" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A2" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B2" s="4">
+      <c r="A2" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="8">
         <v>25309</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="8">
+        <v>55121</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="8">
+        <v>50395</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+    </row>
+    <row r="5" ht="16" customHeight="1" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="8">
+        <v>66106</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8">
+        <v>38136</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+    </row>
+    <row r="7" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="8">
+        <v>48101</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="7"/>
+    </row>
+    <row r="8" ht="16" customHeight="1" spans="1:7">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="8">
+        <v>63042</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="7"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:7">
+      <c r="A9" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="8">
+        <v>49512</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+    </row>
+    <row r="10" ht="16.5" customHeight="1" spans="1:7">
+      <c r="A10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B10" s="8">
+        <v>30268</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+    </row>
+    <row r="11" ht="16" customHeight="1" spans="1:7">
+      <c r="A11" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="8">
+        <v>35222</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+    </row>
+    <row r="12" ht="16.25" customHeight="1" spans="1:7">
+      <c r="A12" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="8">
+        <v>36602</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+    </row>
+    <row r="19" ht="18" spans="4:5">
+      <c r="D19" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="4">
-        <v>55121</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="6" t="s">
+    </row>
+    <row r="20" ht="18" spans="4:5">
+      <c r="D20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" ht="18" spans="4:5">
+      <c r="D21" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="E21" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" ht="18" spans="4:5">
+      <c r="D22" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="E22" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" ht="18" spans="4:5">
+      <c r="D23" s="22" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" ht="17" customHeight="1" spans="1:7">
-      <c r="A4" s="2" t="s">
+      <c r="E23" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B4" s="4">
-        <v>50395</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="8" t="s">
+    </row>
+    <row r="24" ht="18" spans="4:5">
+      <c r="D24" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E24" s="20" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" ht="18" spans="4:5">
+      <c r="D25" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" ht="16" customHeight="1" spans="1:7">
-      <c r="A5" s="1" t="s">
+      <c r="E25" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="4">
-        <v>66106</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="9" t="s">
+    </row>
+    <row r="26" ht="18" spans="4:5">
+      <c r="D26" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E26" s="20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" ht="18" spans="4:5">
+      <c r="D27" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-    </row>
-    <row r="6" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c r="E27" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="4">
-        <v>38136</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="10" t="s">
+    </row>
+    <row r="28" ht="18" spans="4:5">
+      <c r="D28" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-    </row>
-    <row r="7" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
+      <c r="E28" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="4">
-        <v>48101</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="11" t="s">
+    </row>
+    <row r="29" ht="18" spans="4:5">
+      <c r="D29" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E29" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" ht="18" spans="4:5">
+      <c r="D30" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="E30" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" ht="18" spans="4:5">
+      <c r="D31" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G7" s="3"/>
-    </row>
-    <row r="8" ht="16" customHeight="1" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="4">
-        <v>63042</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="E31" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" ht="18" spans="4:5">
+      <c r="D32" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E32" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="18" spans="4:5">
+      <c r="D33" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="E33" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" ht="18" spans="4:5">
+      <c r="D34" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3"/>
-    </row>
-    <row r="9" ht="17" customHeight="1" spans="1:7">
-      <c r="A9" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="4">
-        <v>49512</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" s="13" t="s">
+      <c r="E34" s="20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" ht="18" spans="4:5">
+      <c r="D35" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1" spans="1:7">
-      <c r="A10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="4">
-        <v>30268</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="12" t="s">
+      <c r="E35" s="20" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" ht="18" spans="4:5">
+      <c r="D36" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" ht="16" customHeight="1" spans="1:7">
-      <c r="A11" s="1" t="s">
+      <c r="E36" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B11" s="4">
-        <v>35222</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="14" t="s">
+    </row>
+    <row r="37" ht="18" spans="4:5">
+      <c r="D37" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-    </row>
-    <row r="12" ht="16.25" customHeight="1" spans="1:7">
-      <c r="A12" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="4">
-        <v>36602</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="6" t="s">
+      <c r="E37" s="20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" ht="18" spans="4:5">
+      <c r="D38" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-    </row>
-    <row r="19" ht="18" spans="4:5">
-      <c r="D19" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" ht="18" spans="4:5">
-      <c r="D20" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" ht="18" spans="4:5">
-      <c r="D21" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" ht="18" spans="4:5">
-      <c r="D22" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" ht="18" spans="4:5">
-      <c r="D23" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" ht="18" spans="4:5">
-      <c r="D24" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" ht="18" spans="4:5">
-      <c r="D25" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="26" ht="18" spans="4:5">
-      <c r="D26" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" ht="18" spans="4:5">
-      <c r="D27" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" ht="18" spans="4:5">
-      <c r="D28" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" ht="18" spans="4:5">
-      <c r="D29" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E29" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" ht="18" spans="4:5">
-      <c r="D30" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E30" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" ht="18" spans="4:5">
-      <c r="D31" s="22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" ht="18" spans="4:5">
-      <c r="D32" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="33" ht="18" spans="4:5">
-      <c r="D33" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="34" ht="18" spans="4:5">
-      <c r="D34" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" ht="18" spans="4:5">
-      <c r="D35" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="36" ht="18" spans="4:5">
-      <c r="D36" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="37" ht="18" spans="4:5">
-      <c r="D37" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" ht="18" spans="4:5">
-      <c r="D38" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>76</v>
+      <c r="E38" s="20" t="s">
+        <v>77</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="2" max="2" width="14.0625" customWidth="1"/>
+    <col min="3" max="3" width="14.84375" customWidth="1"/>
+    <col min="4" max="4" width="20.4375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" ht="17" spans="1:4">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="2">
+        <v>72</v>
+      </c>
+      <c r="D2" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" ht="17" spans="1:4">
+      <c r="A3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="2">
+        <v>72</v>
+      </c>
+      <c r="D3" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" ht="17" spans="1:4">
+      <c r="A4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2">
+        <v>72</v>
+      </c>
+      <c r="D4" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" ht="17" spans="1:4">
+      <c r="A5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="2">
+        <v>72</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="17.6" spans="1:4">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2">
+        <v>72</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" ht="17.6" spans="1:4">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2">
+        <v>72</v>
+      </c>
+      <c r="D7" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" ht="17.6" spans="1:4">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2">
+        <v>72</v>
+      </c>
+      <c r="D8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="17.6" spans="1:4">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="2">
+        <v>72</v>
+      </c>
+      <c r="D9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="17.6" spans="1:4">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="2">
+        <v>74</v>
+      </c>
+      <c r="D10" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" ht="17.6" spans="1:4">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="2">
+        <v>74</v>
+      </c>
+      <c r="D11" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" ht="17.6" spans="1:4">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="2">
+        <v>74</v>
+      </c>
+      <c r="D12" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" ht="17.6" spans="1:4">
+      <c r="A13" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2">
+        <v>74</v>
+      </c>
+      <c r="D13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" ht="17.6" spans="1:4">
+      <c r="A14" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2">
+        <v>74</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" ht="17.6" spans="1:4">
+      <c r="A15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="2">
+        <v>74</v>
+      </c>
+      <c r="D15" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" ht="17.6" spans="1:4">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="2">
+        <v>72</v>
+      </c>
+      <c r="D16" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="17.6" spans="1:4">
+      <c r="A17" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2">
+        <v>74</v>
+      </c>
+      <c r="D17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" ht="17.6" spans="1:4">
+      <c r="A18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>74</v>
+      </c>
+      <c r="D18" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" ht="17.6" spans="1:4">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="2">
+        <v>72</v>
+      </c>
+      <c r="D19" s="2">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>